--- a/formats/excel/RSF/2022/Formats RSF 22.xlsx
+++ b/formats/excel/RSF/2022/Formats RSF 22.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="268">
   <si>
     <t xml:space="preserve">Typer</t>
   </si>
@@ -365,6 +365,21 @@
   </si>
   <si>
     <t xml:space="preserve">trim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant national de santé (INS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro facture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMFACT</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -869,7 +884,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,6 +894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -924,7 +945,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -981,6 +1002,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -998,6 +1031,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1006,15 +1099,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H168" activeCellId="0" sqref="H168"/>
+      <selection pane="bottomLeft" activeCell="D216" activeCellId="0" sqref="D216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="39.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.94"/>
@@ -2322,145 +2415,147 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="7" t="n">
-        <v>1</v>
+      <c r="C55" s="12" t="n">
+        <v>286</v>
       </c>
       <c r="D55" s="8" t="n">
         <f aca="false">C55+E55-1</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="7" t="n">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="E55" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="12" t="n">
+        <v>301</v>
       </c>
       <c r="D56" s="8" t="n">
         <f aca="false">C56+E56-1</f>
-        <v>10</v>
-      </c>
-      <c r="E56" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="7" t="n">
-        <v>11</v>
+        <v>301</v>
+      </c>
+      <c r="E56" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="15" t="n">
+        <v>302</v>
       </c>
       <c r="D57" s="8" t="n">
         <f aca="false">C57+E57-1</f>
-        <v>19</v>
-      </c>
-      <c r="E57" s="7" t="n">
+        <v>310</v>
+      </c>
+      <c r="E57" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C58" s="7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D58" s="8" t="n">
         <f aca="false">C58+E58-1</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C59" s="7" t="n">
-        <v>33</v>
+        <f aca="false">D58+1</f>
+        <v>2</v>
       </c>
       <c r="D59" s="8" t="n">
         <f aca="false">C59+E59-1</f>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C60" s="7" t="n">
-        <v>35</v>
+        <f aca="false">D59+1</f>
+        <v>11</v>
       </c>
       <c r="D60" s="8" t="n">
         <f aca="false">C60+E60-1</f>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>10</v>
@@ -2468,23 +2563,24 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="C61" s="7" t="n">
-        <v>38</v>
+        <f aca="false">D60+1</f>
+        <v>20</v>
       </c>
       <c r="D61" s="8" t="n">
         <f aca="false">C61+E61-1</f>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>10</v>
@@ -2492,23 +2588,24 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C62" s="7" t="n">
-        <v>47</v>
+        <f aca="false">D61+1</f>
+        <v>33</v>
       </c>
       <c r="D62" s="8" t="n">
         <f aca="false">C62+E62-1</f>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>10</v>
@@ -2516,113 +2613,118 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C63" s="7" t="n">
-        <v>60</v>
+        <f aca="false">D62+1</f>
+        <v>35</v>
       </c>
       <c r="D63" s="8" t="n">
         <f aca="false">C63+E63-1</f>
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C64" s="7" t="n">
-        <v>62</v>
+        <f aca="false">D63+1</f>
+        <v>38</v>
       </c>
       <c r="D64" s="8" t="n">
         <f aca="false">C64+E64-1</f>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="C65" s="7" t="n">
-        <v>64</v>
+        <f aca="false">D64+1</f>
+        <v>47</v>
       </c>
       <c r="D65" s="8" t="n">
         <f aca="false">C65+E65-1</f>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C66" s="7" t="n">
-        <v>67</v>
+        <f aca="false">D65+1</f>
+        <v>60</v>
       </c>
       <c r="D66" s="8" t="n">
         <f aca="false">C66+E66-1</f>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E66" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C67" s="7" t="n">
-        <v>68</v>
+        <f aca="false">D66+1</f>
+        <v>62</v>
       </c>
       <c r="D67" s="8" t="n">
         <f aca="false">C67+E67-1</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E67" s="7" t="n">
         <v>2</v>
@@ -2631,52 +2733,54 @@
         <v>123</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C68" s="7" t="n">
-        <v>70</v>
+        <f aca="false">D67+1</f>
+        <v>64</v>
       </c>
       <c r="D68" s="8" t="n">
         <f aca="false">C68+E68-1</f>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C69" s="7" t="n">
-        <v>78</v>
+        <f aca="false">D68+1</f>
+        <v>67</v>
       </c>
       <c r="D69" s="8" t="n">
         <f aca="false">C69+E69-1</f>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>114</v>
@@ -2684,119 +2788,124 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="7" t="n">
-        <v>83</v>
+        <f aca="false">D69+1</f>
+        <v>68</v>
       </c>
       <c r="D70" s="8" t="n">
         <f aca="false">C70+E70-1</f>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" s="7" t="n">
-        <v>86</v>
+        <f aca="false">D70+1</f>
+        <v>70</v>
       </c>
       <c r="D71" s="8" t="n">
         <f aca="false">C71+E71-1</f>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C72" s="7" t="n">
-        <v>92</v>
+        <f aca="false">D71+1</f>
+        <v>78</v>
       </c>
       <c r="D72" s="8" t="n">
         <f aca="false">C72+E72-1</f>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="7" t="n">
-        <v>93</v>
+        <f aca="false">D72+1</f>
+        <v>83</v>
       </c>
       <c r="D73" s="8" t="n">
         <f aca="false">C73+E73-1</f>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E73" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="7" t="n">
-        <v>98</v>
+        <f aca="false">D73+1</f>
+        <v>86</v>
       </c>
       <c r="D74" s="8" t="n">
         <f aca="false">C74+E74-1</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>61</v>
@@ -2804,47 +2913,49 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="7" t="n">
-        <v>100</v>
+        <f aca="false">D74+1</f>
+        <v>92</v>
       </c>
       <c r="D75" s="8" t="n">
         <f aca="false">C75+E75-1</f>
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="7" t="n">
-        <v>107</v>
+        <f aca="false">D75+1</f>
+        <v>93</v>
       </c>
       <c r="D76" s="8" t="n">
         <f aca="false">C76+E76-1</f>
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>61</v>
@@ -2852,23 +2963,24 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="7" t="n">
-        <v>115</v>
+        <f aca="false">D76+1</f>
+        <v>98</v>
       </c>
       <c r="D77" s="8" t="n">
         <f aca="false">C77+E77-1</f>
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>61</v>
@@ -2876,191 +2988,199 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="7" t="n">
-        <v>118</v>
+        <f aca="false">D77+1</f>
+        <v>100</v>
       </c>
       <c r="D78" s="8" t="n">
         <f aca="false">C78+E78-1</f>
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="C79" s="7" t="n">
-        <v>126</v>
+        <f aca="false">D78+1</f>
+        <v>107</v>
       </c>
       <c r="D79" s="8" t="n">
         <f aca="false">C79+E79-1</f>
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E79" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F79" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
+      <c r="C80" s="7" t="n">
+        <f aca="false">D79+1</f>
         <v>115</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="7" t="n">
-        <v>134</v>
       </c>
       <c r="D80" s="8" t="n">
         <f aca="false">C80+E80-1</f>
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F80" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C81" s="7" t="n">
-        <v>141</v>
+        <f aca="false">D80+1</f>
+        <v>118</v>
       </c>
       <c r="D81" s="8" t="n">
         <f aca="false">C81+E81-1</f>
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="G81" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B82" s="6" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="C82" s="7" t="n">
-        <v>1</v>
+        <f aca="false">D81+1</f>
+        <v>126</v>
       </c>
       <c r="D82" s="8" t="n">
         <f aca="false">C82+E82-1</f>
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>151</v>
+    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="C83" s="7" t="n">
-        <v>2</v>
+        <f aca="false">D82+1</f>
+        <v>134</v>
       </c>
       <c r="D83" s="8" t="n">
         <f aca="false">C83+E83-1</f>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C84" s="7" t="n">
-        <v>11</v>
+        <f aca="false">D83+1</f>
+        <v>141</v>
       </c>
       <c r="D84" s="8" t="n">
         <f aca="false">C84+E84-1</f>
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E84" s="7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C85" s="7" t="n">
-        <v>20</v>
+        <f aca="false">D84+1</f>
+        <v>156</v>
       </c>
       <c r="D85" s="8" t="n">
         <f aca="false">C85+E85-1</f>
-        <v>32</v>
-      </c>
-      <c r="E85" s="7" t="n">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="E85" s="16" t="n">
+        <v>9</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>10</v>
@@ -3068,47 +3188,48 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C86" s="7" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D86" s="8" t="n">
         <f aca="false">C86+E86-1</f>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C87" s="7" t="n">
-        <v>35</v>
+        <f aca="false">D86+1</f>
+        <v>2</v>
       </c>
       <c r="D87" s="8" t="n">
         <f aca="false">C87+E87-1</f>
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>10</v>
@@ -3116,47 +3237,49 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C88" s="7" t="n">
-        <v>38</v>
+        <f aca="false">D87+1</f>
+        <v>11</v>
       </c>
       <c r="D88" s="8" t="n">
         <f aca="false">C88+E88-1</f>
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F88" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="0" t="s">
+      <c r="F88" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C89" s="7" t="n">
-        <v>47</v>
+        <f aca="false">D88+1</f>
+        <v>20</v>
       </c>
       <c r="D89" s="8" t="n">
         <f aca="false">C89+E89-1</f>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>13</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>10</v>
@@ -3164,23 +3287,24 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C90" s="7" t="n">
-        <v>60</v>
+        <f aca="false">D89+1</f>
+        <v>33</v>
       </c>
       <c r="D90" s="8" t="n">
         <f aca="false">C90+E90-1</f>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>10</v>
@@ -3188,23 +3312,24 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C91" s="7" t="n">
-        <v>62</v>
+        <f aca="false">D90+1</f>
+        <v>35</v>
       </c>
       <c r="D91" s="8" t="n">
         <f aca="false">C91+E91-1</f>
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>10</v>
@@ -3212,335 +3337,349 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C92" s="7" t="n">
-        <v>64</v>
+        <f aca="false">D91+1</f>
+        <v>38</v>
       </c>
       <c r="D92" s="8" t="n">
         <f aca="false">C92+E92-1</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C93" s="7" t="n">
-        <v>67</v>
+        <f aca="false">D92+1</f>
+        <v>47</v>
       </c>
       <c r="D93" s="8" t="n">
         <f aca="false">C93+E93-1</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C94" s="7" t="n">
-        <v>68</v>
+        <f aca="false">D93+1</f>
+        <v>60</v>
       </c>
       <c r="D94" s="8" t="n">
         <f aca="false">C94+E94-1</f>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E94" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F94" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>114</v>
+      <c r="F94" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C95" s="7" t="n">
-        <v>70</v>
+        <f aca="false">D94+1</f>
+        <v>62</v>
       </c>
       <c r="D95" s="8" t="n">
         <f aca="false">C95+E95-1</f>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96" s="7" t="n">
-        <v>78</v>
+        <f aca="false">D95+1</f>
+        <v>64</v>
       </c>
       <c r="D96" s="8" t="n">
         <f aca="false">C96+E96-1</f>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E96" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7" t="n">
-        <v>83</v>
+        <f aca="false">D96+1</f>
+        <v>67</v>
       </c>
       <c r="D97" s="8" t="n">
         <f aca="false">C97+E97-1</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>130</v>
+        <v>40</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C98" s="7" t="n">
-        <v>86</v>
+        <f aca="false">D97+1</f>
+        <v>68</v>
       </c>
       <c r="D98" s="8" t="n">
         <f aca="false">C98+E98-1</f>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C99" s="7" t="n">
-        <v>92</v>
+        <f aca="false">D98+1</f>
+        <v>70</v>
       </c>
       <c r="D99" s="8" t="n">
         <f aca="false">C99+E99-1</f>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G99" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C100" s="7" t="n">
-        <v>94</v>
+        <f aca="false">D99+1</f>
+        <v>78</v>
       </c>
       <c r="D100" s="8" t="n">
         <f aca="false">C100+E100-1</f>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E100" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>61</v>
+        <v>132</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C101" s="7" t="n">
-        <v>101</v>
+        <f aca="false">D100+1</f>
+        <v>83</v>
       </c>
       <c r="D101" s="8" t="n">
         <f aca="false">C101+E101-1</f>
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E101" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C102" s="7" t="n">
-        <v>109</v>
+        <f aca="false">D101+1</f>
+        <v>86</v>
       </c>
       <c r="D102" s="8" t="n">
         <f aca="false">C102+E102-1</f>
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E102" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C103" s="7" t="n">
-        <v>112</v>
+        <f aca="false">D102+1</f>
+        <v>92</v>
       </c>
       <c r="D103" s="8" t="n">
         <f aca="false">C103+E103-1</f>
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E103" s="7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C104" s="7" t="n">
-        <v>120</v>
+        <f aca="false">D103+1</f>
+        <v>94</v>
       </c>
       <c r="D104" s="8" t="n">
         <f aca="false">C104+E104-1</f>
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E104" s="7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C105" s="7" t="n">
-        <v>128</v>
+        <f aca="false">D104+1</f>
+        <v>101</v>
       </c>
       <c r="D105" s="8" t="n">
         <f aca="false">C105+E105-1</f>
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E105" s="7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>61</v>
@@ -3548,191 +3687,199 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C106" s="7" t="n">
-        <v>135</v>
+        <f aca="false">D105+1</f>
+        <v>109</v>
       </c>
       <c r="D106" s="8" t="n">
         <f aca="false">C106+E106-1</f>
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E106" s="7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" s="7" t="n">
-        <v>146</v>
+        <f aca="false">D106+1</f>
+        <v>112</v>
       </c>
       <c r="D107" s="8" t="n">
         <f aca="false">C107+E107-1</f>
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E107" s="7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C108" s="7" t="n">
-        <v>148</v>
+        <f aca="false">D107+1</f>
+        <v>120</v>
       </c>
       <c r="D108" s="8" t="n">
         <f aca="false">C108+E108-1</f>
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E108" s="7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="C109" s="7" t="n">
-        <v>1</v>
+        <f aca="false">D108+1</f>
+        <v>128</v>
       </c>
       <c r="D109" s="8" t="n">
         <f aca="false">C109+E109-1</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="E109" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C110" s="7" t="n">
-        <v>2</v>
+        <f aca="false">D109+1</f>
+        <v>135</v>
       </c>
       <c r="D110" s="8" t="n">
         <f aca="false">C110+E110-1</f>
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E110" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="C111" s="7" t="n">
-        <v>11</v>
+        <f aca="false">D110+1</f>
+        <v>146</v>
       </c>
       <c r="D111" s="8" t="n">
         <f aca="false">C111+E111-1</f>
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="E111" s="7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="C112" s="7" t="n">
-        <v>20</v>
+        <f aca="false">D111+1</f>
+        <v>148</v>
       </c>
       <c r="D112" s="8" t="n">
         <f aca="false">C112+E112-1</f>
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E112" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>21</v>
+        <v>156</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C113" s="7" t="n">
-        <v>33</v>
+        <f aca="false">D112+1</f>
+        <v>153</v>
       </c>
       <c r="D113" s="8" t="n">
         <f aca="false">C113+E113-1</f>
-        <v>34</v>
-      </c>
-      <c r="E113" s="7" t="n">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="E113" s="16" t="n">
+        <v>9</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>10</v>
@@ -3740,23 +3887,23 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C114" s="7" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D114" s="8" t="n">
         <f aca="false">C114+E114-1</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E114" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>10</v>
@@ -3764,71 +3911,74 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C115" s="7" t="n">
-        <v>38</v>
+        <f aca="false">D114+1</f>
+        <v>2</v>
       </c>
       <c r="D115" s="8" t="n">
         <f aca="false">C115+E115-1</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="0" t="s">
+      <c r="F115" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C116" s="7" t="n">
-        <v>47</v>
+        <f aca="false">D115+1</f>
+        <v>11</v>
       </c>
       <c r="D116" s="8" t="n">
         <f aca="false">C116+E116-1</f>
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E116" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C117" s="7" t="n">
-        <v>60</v>
+        <f aca="false">D116+1</f>
+        <v>20</v>
       </c>
       <c r="D117" s="8" t="n">
         <f aca="false">C117+E117-1</f>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E117" s="7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>10</v>
@@ -3836,335 +3986,349 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C118" s="7" t="n">
-        <v>62</v>
+        <f aca="false">D117+1</f>
+        <v>33</v>
       </c>
       <c r="D118" s="8" t="n">
         <f aca="false">C118+E118-1</f>
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E118" s="7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="C119" s="7" t="n">
-        <v>70</v>
+        <f aca="false">D118+1</f>
+        <v>35</v>
       </c>
       <c r="D119" s="8" t="n">
         <f aca="false">C119+E119-1</f>
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E119" s="7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="C120" s="7" t="n">
-        <v>77</v>
+        <f aca="false">D119+1</f>
+        <v>38</v>
       </c>
       <c r="D120" s="8" t="n">
         <f aca="false">C120+E120-1</f>
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E120" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>130</v>
+        <v>9</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="C121" s="7" t="n">
-        <v>82</v>
+        <f aca="false">D120+1</f>
+        <v>47</v>
       </c>
       <c r="D121" s="8" t="n">
         <f aca="false">C121+E121-1</f>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E121" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="C122" s="7" t="n">
-        <v>89</v>
+        <f aca="false">D121+1</f>
+        <v>60</v>
       </c>
       <c r="D122" s="8" t="n">
         <f aca="false">C122+E122-1</f>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E122" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C123" s="7" t="n">
-        <v>96</v>
+        <f aca="false">D122+1</f>
+        <v>62</v>
       </c>
       <c r="D123" s="8" t="n">
         <f aca="false">C123+E123-1</f>
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="E123" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C124" s="7" t="n">
-        <v>103</v>
+        <f aca="false">D123+1</f>
+        <v>70</v>
       </c>
       <c r="D124" s="8" t="n">
         <f aca="false">C124+E124-1</f>
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E124" s="7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C125" s="7" t="n">
-        <v>106</v>
+        <f aca="false">D124+1</f>
+        <v>77</v>
       </c>
       <c r="D125" s="8" t="n">
         <f aca="false">C125+E125-1</f>
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E125" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C126" s="7" t="n">
-        <v>113</v>
+        <f aca="false">D125+1</f>
+        <v>82</v>
       </c>
       <c r="D126" s="8" t="n">
         <f aca="false">C126+E126-1</f>
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F126" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>10</v>
+      <c r="F126" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="C127" s="7" t="n">
-        <v>1</v>
+        <f aca="false">D126+1</f>
+        <v>89</v>
       </c>
       <c r="D127" s="8" t="n">
         <f aca="false">C127+E127-1</f>
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E127" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="C128" s="7" t="n">
-        <v>2</v>
+        <f aca="false">D127+1</f>
+        <v>96</v>
       </c>
       <c r="D128" s="8" t="n">
         <f aca="false">C128+E128-1</f>
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E128" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="C129" s="7" t="n">
-        <v>11</v>
+        <f aca="false">D128+1</f>
+        <v>103</v>
       </c>
       <c r="D129" s="8" t="n">
         <f aca="false">C129+E129-1</f>
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="E129" s="7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="C130" s="7" t="n">
-        <v>20</v>
+        <f aca="false">D129+1</f>
+        <v>106</v>
       </c>
       <c r="D130" s="8" t="n">
         <f aca="false">C130+E130-1</f>
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E130" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="C131" s="7" t="n">
-        <v>33</v>
+        <f aca="false">D130+1</f>
+        <v>113</v>
       </c>
       <c r="D131" s="8" t="n">
         <f aca="false">C131+E131-1</f>
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E131" s="7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="G131" s="0" t="s">
         <v>10</v>
@@ -4172,335 +4336,348 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>23</v>
+        <v>159</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C132" s="7" t="n">
-        <v>35</v>
+        <f aca="false">D131+1</f>
+        <v>120</v>
       </c>
       <c r="D132" s="8" t="n">
         <f aca="false">C132+E132-1</f>
-        <v>37</v>
-      </c>
-      <c r="E132" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C133" s="7" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D133" s="8" t="n">
         <f aca="false">C133+E133-1</f>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E133" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="0" t="s">
+      <c r="G133" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C134" s="7" t="n">
-        <v>47</v>
+        <f aca="false">D133+1</f>
+        <v>2</v>
       </c>
       <c r="D134" s="8" t="n">
         <f aca="false">C134+E134-1</f>
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E134" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C135" s="7" t="n">
-        <v>60</v>
+        <f aca="false">D134+1</f>
+        <v>11</v>
       </c>
       <c r="D135" s="8" t="n">
         <f aca="false">C135+E135-1</f>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E135" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G135" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C136" s="7" t="n">
-        <v>62</v>
+        <f aca="false">D135+1</f>
+        <v>20</v>
       </c>
       <c r="D136" s="8" t="n">
         <f aca="false">C136+E136-1</f>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E136" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G136" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="C137" s="7" t="n">
-        <v>64</v>
+        <f aca="false">D136+1</f>
+        <v>33</v>
       </c>
       <c r="D137" s="8" t="n">
         <f aca="false">C137+E137-1</f>
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E137" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G137" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C138" s="7" t="n">
-        <v>67</v>
+        <f aca="false">D137+1</f>
+        <v>35</v>
       </c>
       <c r="D138" s="8" t="n">
         <f aca="false">C138+E138-1</f>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E138" s="7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="C139" s="7" t="n">
-        <v>75</v>
+        <f aca="false">D138+1</f>
+        <v>38</v>
       </c>
       <c r="D139" s="8" t="n">
         <f aca="false">C139+E139-1</f>
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E139" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>114</v>
+        <v>9</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="C140" s="7" t="n">
-        <v>88</v>
+        <f aca="false">D139+1</f>
+        <v>47</v>
       </c>
       <c r="D140" s="8" t="n">
         <f aca="false">C140+E140-1</f>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E140" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="C141" s="7" t="n">
-        <v>89</v>
+        <f aca="false">D140+1</f>
+        <v>60</v>
       </c>
       <c r="D141" s="8" t="n">
         <f aca="false">C141+E141-1</f>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E141" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C142" s="7" t="n">
-        <v>90</v>
+        <f aca="false">D141+1</f>
+        <v>62</v>
       </c>
       <c r="D142" s="8" t="n">
         <f aca="false">C142+E142-1</f>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E142" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="C143" s="7" t="n">
-        <v>91</v>
+        <f aca="false">D142+1</f>
+        <v>64</v>
       </c>
       <c r="D143" s="8" t="n">
         <f aca="false">C143+E143-1</f>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E143" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C144" s="7" t="n">
-        <v>92</v>
+        <f aca="false">D143+1</f>
+        <v>67</v>
       </c>
       <c r="D144" s="8" t="n">
         <f aca="false">C144+E144-1</f>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E144" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>114</v>
+        <v>176</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C145" s="7" t="n">
-        <v>93</v>
+        <f aca="false">D144+1</f>
+        <v>75</v>
       </c>
       <c r="D145" s="8" t="n">
         <f aca="false">C145+E145-1</f>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E145" s="7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>114</v>
@@ -4508,23 +4685,24 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C146" s="7" t="n">
-        <v>94</v>
+        <f aca="false">D145+1</f>
+        <v>88</v>
       </c>
       <c r="D146" s="8" t="n">
         <f aca="false">C146+E146-1</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E146" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>114</v>
@@ -4532,23 +4710,24 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C147" s="7" t="n">
-        <v>95</v>
+        <f aca="false">D146+1</f>
+        <v>89</v>
       </c>
       <c r="D147" s="8" t="n">
         <f aca="false">C147+E147-1</f>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E147" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>114</v>
@@ -4556,23 +4735,24 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C148" s="7" t="n">
-        <v>96</v>
+        <f aca="false">D147+1</f>
+        <v>90</v>
       </c>
       <c r="D148" s="8" t="n">
         <f aca="false">C148+E148-1</f>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E148" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>114</v>
@@ -4580,23 +4760,24 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C149" s="7" t="n">
-        <v>97</v>
+        <f aca="false">D148+1</f>
+        <v>91</v>
       </c>
       <c r="D149" s="8" t="n">
         <f aca="false">C149+E149-1</f>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E149" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>114</v>
@@ -4604,23 +4785,24 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C150" s="7" t="n">
-        <v>99</v>
+        <f aca="false">D149+1</f>
+        <v>92</v>
       </c>
       <c r="D150" s="8" t="n">
         <f aca="false">C150+E150-1</f>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E150" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>114</v>
@@ -4628,23 +4810,24 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C151" s="7" t="n">
-        <v>101</v>
+        <f aca="false">D150+1</f>
+        <v>93</v>
       </c>
       <c r="D151" s="8" t="n">
         <f aca="false">C151+E151-1</f>
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E151" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>114</v>
@@ -4652,23 +4835,24 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C152" s="7" t="n">
-        <v>103</v>
+        <f aca="false">D151+1</f>
+        <v>94</v>
       </c>
       <c r="D152" s="8" t="n">
         <f aca="false">C152+E152-1</f>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E152" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>114</v>
@@ -4676,23 +4860,24 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C153" s="7" t="n">
-        <v>105</v>
+        <f aca="false">D152+1</f>
+        <v>95</v>
       </c>
       <c r="D153" s="8" t="n">
         <f aca="false">C153+E153-1</f>
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E153" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>114</v>
@@ -4700,23 +4885,24 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C154" s="7" t="n">
-        <v>107</v>
+        <f aca="false">D153+1</f>
+        <v>96</v>
       </c>
       <c r="D154" s="8" t="n">
         <f aca="false">C154+E154-1</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E154" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>114</v>
@@ -4724,23 +4910,24 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C155" s="7" t="n">
-        <v>109</v>
+        <f aca="false">D154+1</f>
+        <v>97</v>
       </c>
       <c r="D155" s="8" t="n">
         <f aca="false">C155+E155-1</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>114</v>
@@ -4748,23 +4935,24 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C156" s="7" t="n">
-        <v>111</v>
+        <f aca="false">D155+1</f>
+        <v>99</v>
       </c>
       <c r="D156" s="8" t="n">
         <f aca="false">C156+E156-1</f>
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>114</v>
@@ -4772,23 +4960,24 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C157" s="7" t="n">
-        <v>113</v>
+        <f aca="false">D156+1</f>
+        <v>101</v>
       </c>
       <c r="D157" s="8" t="n">
         <f aca="false">C157+E157-1</f>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E157" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>114</v>
@@ -4796,23 +4985,24 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C158" s="7" t="n">
-        <v>115</v>
+        <f aca="false">D157+1</f>
+        <v>103</v>
       </c>
       <c r="D158" s="8" t="n">
         <f aca="false">C158+E158-1</f>
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E158" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>114</v>
@@ -4820,23 +5010,24 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C159" s="7" t="n">
-        <v>117</v>
+        <f aca="false">D158+1</f>
+        <v>105</v>
       </c>
       <c r="D159" s="8" t="n">
         <f aca="false">C159+E159-1</f>
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E159" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>114</v>
@@ -4844,23 +5035,24 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C160" s="7" t="n">
-        <v>119</v>
+        <f aca="false">D159+1</f>
+        <v>107</v>
       </c>
       <c r="D160" s="8" t="n">
         <f aca="false">C160+E160-1</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E160" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>114</v>
@@ -4868,23 +5060,24 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C161" s="7" t="n">
-        <v>121</v>
+        <f aca="false">D160+1</f>
+        <v>109</v>
       </c>
       <c r="D161" s="8" t="n">
         <f aca="false">C161+E161-1</f>
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E161" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>114</v>
@@ -4892,23 +5085,24 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C162" s="7" t="n">
-        <v>123</v>
+        <f aca="false">D161+1</f>
+        <v>111</v>
       </c>
       <c r="D162" s="8" t="n">
         <f aca="false">C162+E162-1</f>
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E162" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>114</v>
@@ -4916,23 +5110,24 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C163" s="7" t="n">
-        <v>125</v>
+        <f aca="false">D162+1</f>
+        <v>113</v>
       </c>
       <c r="D163" s="8" t="n">
         <f aca="false">C163+E163-1</f>
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E163" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>114</v>
@@ -4940,23 +5135,24 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C164" s="7" t="n">
-        <v>127</v>
+        <f aca="false">D163+1</f>
+        <v>115</v>
       </c>
       <c r="D164" s="8" t="n">
         <f aca="false">C164+E164-1</f>
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E164" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>114</v>
@@ -4964,167 +5160,174 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="15" t="n">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C165" s="7" t="n">
+        <f aca="false">D164+1</f>
+        <v>117</v>
       </c>
       <c r="D165" s="8" t="n">
         <f aca="false">C165+E165-1</f>
-        <v>1</v>
-      </c>
-      <c r="E165" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="E165" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="15" t="n">
-        <v>2</v>
+        <v>174</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C166" s="7" t="n">
+        <f aca="false">D165+1</f>
+        <v>119</v>
       </c>
       <c r="D166" s="8" t="n">
         <f aca="false">C166+E166-1</f>
-        <v>10</v>
-      </c>
-      <c r="E166" s="15" t="n">
-        <v>9</v>
+        <v>120</v>
+      </c>
+      <c r="E166" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>10</v>
+        <v>220</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="15" t="n">
-        <v>11</v>
+        <v>174</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C167" s="7" t="n">
+        <f aca="false">D166+1</f>
+        <v>121</v>
       </c>
       <c r="D167" s="8" t="n">
         <f aca="false">C167+E167-1</f>
-        <v>19</v>
-      </c>
-      <c r="E167" s="15" t="n">
-        <v>9</v>
+        <v>122</v>
+      </c>
+      <c r="E167" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>10</v>
+        <v>222</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="15" t="n">
-        <v>20</v>
+        <v>174</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C168" s="7" t="n">
+        <f aca="false">D167+1</f>
+        <v>123</v>
       </c>
       <c r="D168" s="8" t="n">
         <f aca="false">C168+E168-1</f>
-        <v>32</v>
-      </c>
-      <c r="E168" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="E168" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" s="15" t="n">
-        <v>33</v>
+        <v>174</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169" s="7" t="n">
+        <f aca="false">D168+1</f>
+        <v>125</v>
       </c>
       <c r="D169" s="8" t="n">
         <f aca="false">C169+E169-1</f>
-        <v>34</v>
-      </c>
-      <c r="E169" s="15" t="n">
+        <v>126</v>
+      </c>
+      <c r="E169" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F169" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="0" t="s">
-        <v>10</v>
+      <c r="F169" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C170" s="15" t="n">
-        <v>35</v>
+        <v>174</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C170" s="7" t="n">
+        <f aca="false">D169+1</f>
+        <v>127</v>
       </c>
       <c r="D170" s="8" t="n">
         <f aca="false">C170+E170-1</f>
-        <v>37</v>
-      </c>
-      <c r="E170" s="15" t="n">
-        <v>3</v>
+        <v>128</v>
+      </c>
+      <c r="E170" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>10</v>
+        <v>228</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C171" s="15" t="n">
-        <v>38</v>
+        <v>118</v>
+      </c>
+      <c r="C171" s="7" t="n">
+        <f aca="false">D170+1</f>
+        <v>129</v>
       </c>
       <c r="D171" s="8" t="n">
         <f aca="false">C171+E171-1</f>
-        <v>46</v>
-      </c>
-      <c r="E171" s="15" t="n">
+        <v>137</v>
+      </c>
+      <c r="E171" s="16" t="n">
         <v>9</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>10</v>
@@ -5132,71 +5335,73 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172" s="15" t="n">
-        <v>47</v>
+        <v>229</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D172" s="8" t="n">
         <f aca="false">C172+E172-1</f>
-        <v>59</v>
-      </c>
-      <c r="E172" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F172" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" s="15" t="n">
-        <v>60</v>
+        <v>229</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="7" t="n">
+        <f aca="false">D172+1</f>
+        <v>2</v>
       </c>
       <c r="D173" s="8" t="n">
         <f aca="false">C173+E173-1</f>
-        <v>61</v>
-      </c>
-      <c r="E173" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F173" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C174" s="15" t="n">
-        <v>62</v>
+        <v>229</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="7" t="n">
+        <f aca="false">D173+1</f>
+        <v>11</v>
       </c>
       <c r="D174" s="8" t="n">
         <f aca="false">C174+E174-1</f>
-        <v>63</v>
-      </c>
-      <c r="E174" s="15" t="n">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E174" s="18" t="n">
+        <v>9</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G174" s="9" t="s">
         <v>10</v>
@@ -5204,575 +5409,599 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C175" s="15" t="n">
-        <v>64</v>
+        <v>229</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="7" t="n">
+        <f aca="false">D174+1</f>
+        <v>20</v>
       </c>
       <c r="D175" s="8" t="n">
         <f aca="false">C175+E175-1</f>
-        <v>66</v>
-      </c>
-      <c r="E175" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F175" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G175" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E175" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C176" s="15" t="n">
-        <v>67</v>
+        <v>229</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" s="7" t="n">
+        <f aca="false">D175+1</f>
+        <v>33</v>
       </c>
       <c r="D176" s="8" t="n">
         <f aca="false">C176+E176-1</f>
-        <v>74</v>
-      </c>
-      <c r="E176" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F176" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="E176" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C177" s="15" t="n">
-        <v>75</v>
+        <v>229</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="7" t="n">
+        <f aca="false">D176+1</f>
+        <v>35</v>
       </c>
       <c r="D177" s="8" t="n">
         <f aca="false">C177+E177-1</f>
-        <v>76</v>
-      </c>
-      <c r="E177" s="15" t="n">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="E177" s="18" t="n">
+        <v>3</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B178" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B178" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C178" s="15" t="n">
-        <v>77</v>
+      <c r="C178" s="7" t="n">
+        <f aca="false">D177+1</f>
+        <v>38</v>
       </c>
       <c r="D178" s="8" t="n">
         <f aca="false">C178+E178-1</f>
-        <v>84</v>
-      </c>
-      <c r="E178" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G178" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C179" s="15" t="n">
-        <v>85</v>
+        <v>229</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="7" t="n">
+        <f aca="false">D178+1</f>
+        <v>47</v>
       </c>
       <c r="D179" s="8" t="n">
         <f aca="false">C179+E179-1</f>
-        <v>92</v>
-      </c>
-      <c r="E179" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F179" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="E179" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C180" s="15" t="n">
-        <v>93</v>
+        <v>229</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" s="7" t="n">
+        <f aca="false">D179+1</f>
+        <v>60</v>
       </c>
       <c r="D180" s="8" t="n">
         <f aca="false">C180+E180-1</f>
-        <v>94</v>
-      </c>
-      <c r="E180" s="15" t="n">
+        <v>61</v>
+      </c>
+      <c r="E180" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F180" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>130</v>
+      <c r="F180" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C181" s="15" t="n">
-        <v>95</v>
+        <v>229</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C181" s="7" t="n">
+        <f aca="false">D180+1</f>
+        <v>62</v>
       </c>
       <c r="D181" s="8" t="n">
         <f aca="false">C181+E181-1</f>
-        <v>102</v>
-      </c>
-      <c r="E181" s="15" t="n">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="E181" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G181" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G181" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C182" s="15" t="n">
-        <v>103</v>
+        <v>229</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C182" s="7" t="n">
+        <f aca="false">D181+1</f>
+        <v>64</v>
       </c>
       <c r="D182" s="8" t="n">
         <f aca="false">C182+E182-1</f>
-        <v>110</v>
-      </c>
-      <c r="E182" s="15" t="n">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="E182" s="18" t="n">
+        <v>3</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C183" s="15" t="n">
-        <v>111</v>
+        <v>229</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C183" s="7" t="n">
+        <f aca="false">D182+1</f>
+        <v>67</v>
       </c>
       <c r="D183" s="8" t="n">
         <f aca="false">C183+E183-1</f>
-        <v>112</v>
-      </c>
-      <c r="E183" s="15" t="n">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="E183" s="18" t="n">
+        <v>8</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C184" s="15" t="n">
-        <v>113</v>
+        <v>229</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C184" s="7" t="n">
+        <f aca="false">D183+1</f>
+        <v>75</v>
       </c>
       <c r="D184" s="8" t="n">
         <f aca="false">C184+E184-1</f>
-        <v>120</v>
-      </c>
-      <c r="E184" s="15" t="n">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="E184" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C185" s="15" t="n">
-        <v>121</v>
+        <v>229</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C185" s="7" t="n">
+        <f aca="false">D184+1</f>
+        <v>77</v>
       </c>
       <c r="D185" s="8" t="n">
         <f aca="false">C185+E185-1</f>
-        <v>128</v>
-      </c>
-      <c r="E185" s="15" t="n">
+        <v>84</v>
+      </c>
+      <c r="E185" s="18" t="n">
         <v>8</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C186" s="15" t="n">
-        <v>129</v>
+        <v>229</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C186" s="7" t="n">
+        <f aca="false">D185+1</f>
+        <v>85</v>
       </c>
       <c r="D186" s="8" t="n">
         <f aca="false">C186+E186-1</f>
-        <v>130</v>
-      </c>
-      <c r="E186" s="15" t="n">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="E186" s="18" t="n">
+        <v>8</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C187" s="15" t="n">
-        <v>131</v>
+        <v>229</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C187" s="7" t="n">
+        <f aca="false">D186+1</f>
+        <v>93</v>
       </c>
       <c r="D187" s="8" t="n">
         <f aca="false">C187+E187-1</f>
-        <v>138</v>
-      </c>
-      <c r="E187" s="15" t="n">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="E187" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C188" s="15" t="n">
-        <v>139</v>
+        <v>229</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C188" s="7" t="n">
+        <f aca="false">D187+1</f>
+        <v>95</v>
       </c>
       <c r="D188" s="8" t="n">
         <f aca="false">C188+E188-1</f>
-        <v>146</v>
-      </c>
-      <c r="E188" s="15" t="n">
+        <v>102</v>
+      </c>
+      <c r="E188" s="18" t="n">
         <v>8</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C189" s="15" t="n">
-        <v>147</v>
+        <v>229</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C189" s="7" t="n">
+        <f aca="false">D188+1</f>
+        <v>103</v>
       </c>
       <c r="D189" s="8" t="n">
         <f aca="false">C189+E189-1</f>
-        <v>148</v>
-      </c>
-      <c r="E189" s="15" t="n">
-        <v>2</v>
+        <v>110</v>
+      </c>
+      <c r="E189" s="18" t="n">
+        <v>8</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C190" s="15" t="n">
-        <v>149</v>
+        <v>229</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C190" s="7" t="n">
+        <f aca="false">D189+1</f>
+        <v>111</v>
       </c>
       <c r="D190" s="8" t="n">
         <f aca="false">C190+E190-1</f>
-        <v>156</v>
-      </c>
-      <c r="E190" s="15" t="n">
-        <v>8</v>
+        <v>112</v>
+      </c>
+      <c r="E190" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="15" t="n">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C191" s="7" t="n">
+        <f aca="false">D190+1</f>
+        <v>113</v>
       </c>
       <c r="D191" s="8" t="n">
         <f aca="false">C191+E191-1</f>
-        <v>1</v>
-      </c>
-      <c r="E191" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F191" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G191" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E191" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="15" t="n">
-        <v>2</v>
+        <v>229</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C192" s="7" t="n">
+        <f aca="false">D191+1</f>
+        <v>121</v>
       </c>
       <c r="D192" s="8" t="n">
         <f aca="false">C192+E192-1</f>
-        <v>10</v>
-      </c>
-      <c r="E192" s="7" t="n">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="E192" s="18" t="n">
+        <v>8</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="15" t="n">
-        <v>11</v>
+        <v>229</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C193" s="7" t="n">
+        <f aca="false">D192+1</f>
+        <v>129</v>
       </c>
       <c r="D193" s="8" t="n">
         <f aca="false">C193+E193-1</f>
-        <v>19</v>
-      </c>
-      <c r="E193" s="7" t="n">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="E193" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" s="9" t="s">
-        <v>10</v>
+        <v>252</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="15" t="n">
-        <v>20</v>
+        <v>229</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C194" s="7" t="n">
+        <f aca="false">D193+1</f>
+        <v>131</v>
       </c>
       <c r="D194" s="8" t="n">
         <f aca="false">C194+E194-1</f>
-        <v>32</v>
-      </c>
-      <c r="E194" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E194" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C195" s="15" t="n">
-        <v>33</v>
+        <v>229</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C195" s="7" t="n">
+        <f aca="false">D194+1</f>
+        <v>139</v>
       </c>
       <c r="D195" s="8" t="n">
         <f aca="false">C195+E195-1</f>
-        <v>34</v>
-      </c>
-      <c r="E195" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F195" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" s="0" t="s">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E195" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C196" s="15" t="n">
-        <v>35</v>
+        <v>229</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C196" s="7" t="n">
+        <f aca="false">D195+1</f>
+        <v>147</v>
       </c>
       <c r="D196" s="8" t="n">
         <f aca="false">C196+E196-1</f>
-        <v>37</v>
-      </c>
-      <c r="E196" s="7" t="n">
-        <v>3</v>
+        <v>148</v>
+      </c>
+      <c r="E196" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>10</v>
+        <v>258</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C197" s="15" t="n">
-        <v>38</v>
+        <v>229</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C197" s="7" t="n">
+        <f aca="false">D196+1</f>
+        <v>149</v>
       </c>
       <c r="D197" s="8" t="n">
         <f aca="false">C197+E197-1</f>
-        <v>46</v>
-      </c>
-      <c r="E197" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F197" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C198" s="15" t="n">
-        <v>47</v>
+        <v>118</v>
+      </c>
+      <c r="C198" s="7" t="n">
+        <f aca="false">D197+1</f>
+        <v>157</v>
       </c>
       <c r="D198" s="8" t="n">
         <f aca="false">C198+E198-1</f>
-        <v>59</v>
-      </c>
-      <c r="E198" s="7" t="n">
-        <v>13</v>
+        <v>165</v>
+      </c>
+      <c r="E198" s="16" t="n">
+        <v>9</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>10</v>
@@ -5780,224 +6009,457 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C199" s="15" t="n">
-        <v>60</v>
+        <v>261</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D199" s="8" t="n">
         <f aca="false">C199+E199-1</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E199" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F199" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G199" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C200" s="15" t="n">
-        <v>62</v>
+        <v>261</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="7" t="n">
+        <f aca="false">D199+1</f>
+        <v>2</v>
       </c>
       <c r="D200" s="8" t="n">
         <f aca="false">C200+E200-1</f>
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E200" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F200" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C201" s="15" t="n">
-        <v>70</v>
+        <v>261</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="7" t="n">
+        <f aca="false">D200+1</f>
+        <v>11</v>
       </c>
       <c r="D201" s="8" t="n">
         <f aca="false">C201+E201-1</f>
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E201" s="7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C202" s="15" t="n">
-        <v>83</v>
+        <v>261</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="7" t="n">
+        <f aca="false">D201+1</f>
+        <v>20</v>
       </c>
       <c r="D202" s="8" t="n">
         <f aca="false">C202+E202-1</f>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E202" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F202" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>130</v>
+        <v>13</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C203" s="15" t="n">
-        <v>85</v>
+        <v>261</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="7" t="n">
+        <f aca="false">D202+1</f>
+        <v>33</v>
       </c>
       <c r="D203" s="8" t="n">
         <f aca="false">C203+E203-1</f>
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E203" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F203" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B204" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C204" s="15" t="n">
-        <v>92</v>
+      <c r="B204" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="7" t="n">
+        <f aca="false">D203+1</f>
+        <v>35</v>
       </c>
       <c r="D204" s="8" t="n">
         <f aca="false">C204+E204-1</f>
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E204" s="7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C205" s="15" t="n">
-        <v>99</v>
+        <v>261</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205" s="7" t="n">
+        <f aca="false">D204+1</f>
+        <v>38</v>
       </c>
       <c r="D205" s="8" t="n">
         <f aca="false">C205+E205-1</f>
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="E205" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F205" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B206" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C206" s="15" t="n">
-        <v>106</v>
+        <v>261</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="7" t="n">
+        <f aca="false">D205+1</f>
+        <v>47</v>
       </c>
       <c r="D206" s="8" t="n">
         <f aca="false">C206+E206-1</f>
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E206" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F206" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C207" s="15" t="n">
-        <v>113</v>
+        <v>261</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="7" t="n">
+        <f aca="false">D206+1</f>
+        <v>60</v>
       </c>
       <c r="D207" s="8" t="n">
         <f aca="false">C207+E207-1</f>
+        <v>61</v>
+      </c>
+      <c r="E207" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C208" s="7" t="n">
+        <f aca="false">D207+1</f>
+        <v>62</v>
+      </c>
+      <c r="D208" s="8" t="n">
+        <f aca="false">C208+E208-1</f>
+        <v>69</v>
+      </c>
+      <c r="E208" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C209" s="7" t="n">
+        <f aca="false">D208+1</f>
+        <v>70</v>
+      </c>
+      <c r="D209" s="8" t="n">
+        <f aca="false">C209+E209-1</f>
+        <v>82</v>
+      </c>
+      <c r="E209" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C210" s="7" t="n">
+        <f aca="false">D209+1</f>
+        <v>83</v>
+      </c>
+      <c r="D210" s="8" t="n">
+        <f aca="false">C210+E210-1</f>
+        <v>84</v>
+      </c>
+      <c r="E210" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F210" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C211" s="7" t="n">
+        <f aca="false">D210+1</f>
+        <v>85</v>
+      </c>
+      <c r="D211" s="8" t="n">
+        <f aca="false">C211+E211-1</f>
+        <v>91</v>
+      </c>
+      <c r="E211" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" s="7" t="n">
+        <f aca="false">D211+1</f>
+        <v>92</v>
+      </c>
+      <c r="D212" s="8" t="n">
+        <f aca="false">C212+E212-1</f>
+        <v>98</v>
+      </c>
+      <c r="E212" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C213" s="7" t="n">
+        <f aca="false">D212+1</f>
+        <v>99</v>
+      </c>
+      <c r="D213" s="8" t="n">
+        <f aca="false">C213+E213-1</f>
+        <v>105</v>
+      </c>
+      <c r="E213" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C214" s="7" t="n">
+        <f aca="false">D213+1</f>
+        <v>106</v>
+      </c>
+      <c r="D214" s="8" t="n">
+        <f aca="false">C214+E214-1</f>
+        <v>112</v>
+      </c>
+      <c r="E214" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C215" s="7" t="n">
+        <f aca="false">D214+1</f>
+        <v>113</v>
+      </c>
+      <c r="D215" s="8" t="n">
+        <f aca="false">C215+E215-1</f>
         <v>119</v>
       </c>
-      <c r="E207" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F207" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G207" s="1" t="s">
+      <c r="E215" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" s="7" t="n">
+        <f aca="false">D215+1</f>
+        <v>120</v>
+      </c>
+      <c r="D216" s="8" t="n">
+        <f aca="false">C216+E216-1</f>
+        <v>128</v>
+      </c>
+      <c r="E216" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
